--- a/DCISM_WBRMSystem/file/temp_inventory/LB 447 (124 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 447 (124 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 447</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Mouse</t>
@@ -30056,7 +30056,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d/abCO3aitr2oV3jLUZZ+QfMtUBw+NRebIJhOGf2V0sr04Ym7yEybb1ip2T9hZ/96qLc7bIeNgM1i78/BrZg9g==" saltValue="6qefJ1o3QDf0vjNrS92OdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PwCMjUfaIsgk2R7EAUOUagRI5LORqgGvd7q2WNwltnGJcbz7iN9MUl+ID5+x8P4NnW6Vbkj2DKYkQ3Uc/diEaA==" saltValue="C1bBXyFbcbVqHS2Xlm1DoQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
